--- a/data/summer2016-v2.xlsx
+++ b/data/summer2016-v2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcfrank/Projects/amazon_pragmatics/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18060" yWindow="0" windowWidth="20340" windowHeight="18760" tabRatio="500"/>
+    <workbookView xWindow="8460" yWindow="460" windowWidth="20340" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="45">
-  <si>
-    <t>Order</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="51">
   <si>
     <t>f</t>
   </si>
@@ -35,9 +40,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -107,18 +109,6 @@
     <t>con hombre y con canasta</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Bahuanisho</t>
   </si>
   <si>
@@ -156,6 +146,42 @@
   </si>
   <si>
     <t>mototaxi</t>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>target_code</t>
+  </si>
+  <si>
+    <t>trial_type</t>
+  </si>
+  <si>
+    <t>inference</t>
   </si>
 </sst>
 </file>
@@ -596,6 +622,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -923,57 +954,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -985,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1006,12 +1037,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1023,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1044,12 +1075,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1061,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1082,12 +1113,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1099,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1120,12 +1151,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1137,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1158,12 +1189,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1175,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1196,12 +1227,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1213,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1234,12 +1265,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1251,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1272,12 +1303,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1289,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1310,12 +1341,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1327,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1348,12 +1379,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1365,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1386,12 +1417,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1403,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1424,12 +1455,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1441,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1462,12 +1493,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1479,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1500,12 +1531,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1517,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1538,12 +1569,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1555,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1576,12 +1607,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1593,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1614,12 +1645,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1631,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1652,12 +1683,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1669,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1690,12 +1721,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -1707,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1728,12 +1759,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1745,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1766,12 +1797,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1783,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1804,12 +1835,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -1821,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1842,12 +1873,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -1859,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1880,12 +1911,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -1897,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1918,12 +1949,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -1935,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1956,12 +1987,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -1973,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1994,12 +2025,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>14</v>
@@ -2011,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2032,12 +2063,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -2049,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2070,12 +2101,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -2087,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -2108,12 +2139,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>17</v>
@@ -2125,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2146,12 +2177,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>18</v>
@@ -2163,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -2184,12 +2215,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>19</v>
@@ -2201,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2222,12 +2253,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -2239,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2260,12 +2291,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>21</v>
@@ -2277,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2298,12 +2329,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>22</v>
@@ -2315,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2336,12 +2367,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>23</v>
@@ -2353,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -2374,12 +2405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>24</v>
@@ -2391,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -2412,12 +2443,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2429,7 +2460,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -2450,12 +2481,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -2467,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -2488,12 +2519,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2505,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -2526,12 +2557,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -2543,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -2564,12 +2595,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -2581,10 +2612,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -2602,12 +2630,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -2619,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2640,12 +2668,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -2657,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -2678,12 +2706,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>8</v>
@@ -2695,7 +2723,7 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -2716,12 +2744,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>9</v>
@@ -2733,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -2754,12 +2782,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -2771,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -2792,12 +2820,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -2809,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -2830,12 +2858,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>12</v>
@@ -2847,7 +2875,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2868,12 +2896,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>13</v>
@@ -2885,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2906,12 +2934,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>14</v>
@@ -2923,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -2944,12 +2972,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>15</v>
@@ -2961,7 +2989,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -2982,12 +3010,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>16</v>
@@ -2999,7 +3027,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -3020,12 +3048,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>17</v>
@@ -3037,7 +3065,7 @@
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -3058,12 +3086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3075,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -3096,12 +3124,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -3113,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -3134,12 +3162,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -3151,7 +3179,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -3172,12 +3200,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -3189,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -3210,12 +3238,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -3227,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -3248,12 +3276,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -3265,7 +3293,7 @@
         <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -3286,12 +3314,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -3303,7 +3331,7 @@
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -3324,12 +3352,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -3341,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -3362,12 +3390,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -3379,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -3400,12 +3428,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>10</v>
@@ -3417,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -3441,823 +3469,988 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
+      <c r="D23" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
       <c r="D26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37">
         <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>